--- a/énoncé/Fiche autoévaluation comparative.xlsx
+++ b/énoncé/Fiche autoévaluation comparative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Professionnel\CVM\Enseignement\2021_1_Hiver\C52\Projets\p1\_pour_etudiants\énoncé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\KNN\C52-KNN\énoncé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FF71F-E8A2-4DAA-A268-0CD180800A83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1659C3C-EC18-4024-93EE-A2669A470738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3394" windowWidth="24686" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8895" yWindow="5220" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Évaluation" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
   <si>
     <t>Étudiant 1</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>débrouillardise, initiative, amène des solutions pertinentes et de haut niveau, motivation d'équipe …</t>
+  </si>
+  <si>
+    <t>Bousquet, Noé</t>
+  </si>
+  <si>
+    <t>Desrochers, Maxime</t>
+  </si>
+  <si>
+    <t>Fuoco-binette, Romain</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
   </si>
 </sst>
 </file>
@@ -1412,6 +1424,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -1512,14 +1532,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1546,7 +1558,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1623,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1922,23 +1934,23 @@
   <dimension ref="B2:AA80"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:K7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
     <col min="2" max="2" width="7" style="49" customWidth="1"/>
     <col min="3" max="3" width="3" style="49" customWidth="1"/>
     <col min="4" max="4" width="12" style="49" customWidth="1"/>
-    <col min="5" max="5" width="18.84375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="34.4609375" style="49" customWidth="1"/>
-    <col min="7" max="9" width="13.69140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.69140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.69140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.23046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3828125" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.23046875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="49" customWidth="1"/>
+    <col min="7" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="25" width="9" style="49" hidden="1" customWidth="1"/>
@@ -1946,129 +1958,129 @@
     <col min="28" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="87" t="s">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="87"/>
-      <c r="D3" s="107" t="s">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="89"/>
+      <c r="D3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109">
-        <v>3</v>
-      </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
-    </row>
-    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="87"/>
-    </row>
-    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="87"/>
-      <c r="D5" s="107" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="111">
+        <v>4</v>
+      </c>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="89"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="89"/>
+      <c r="D5" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="91">
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="93">
         <v>0.85</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-    </row>
-    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="87"/>
-      <c r="G6" s="93" t="s">
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89"/>
+      <c r="G6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="87"/>
-      <c r="D7" s="105" t="s">
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="89"/>
+      <c r="D7" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="94">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="96">
         <v>0.5</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-    </row>
-    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="87"/>
-      <c r="D8" s="103" t="s">
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+    </row>
+    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="89"/>
+      <c r="D8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="96">
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="98">
         <f>1-G7</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="97"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="87"/>
+    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="89"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="87"/>
-      <c r="D10" s="101" t="s">
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="89"/>
+      <c r="D10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="89">
-        <v>0</v>
-      </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-    </row>
-    <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="87"/>
-      <c r="D11" s="99" t="s">
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+    </row>
+    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89"/>
+      <c r="D11" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="113">
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="87">
         <f ca="1">V44</f>
         <v>0</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="89"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2076,18 +2088,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="88"/>
+    <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="90"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -2100,13 +2112,13 @@
       <c r="I15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="112"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="88"/>
+      <c r="K15" s="114"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="90"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="51" t="s">
@@ -2124,8 +2136,8 @@
       <c r="J16" s="62"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B17" s="88"/>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="90"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="51" t="s">
@@ -2143,8 +2155,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="88"/>
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
       <c r="D18" s="12"/>
       <c r="E18" s="53" t="s">
         <v>51</v>
@@ -2158,21 +2170,25 @@
       <c r="J18" s="9"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:27" ht="15" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="88"/>
+    <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="90"/>
       <c r="C19" s="58">
         <v>1</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="63">
+        <v>2130548</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>96</v>
+      </c>
       <c r="G19" s="28">
         <v>0.25</v>
       </c>
       <c r="H19" s="7">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I19" s="29">
         <v>0.25</v>
@@ -2183,24 +2199,24 @@
       </c>
       <c r="K19" s="16">
         <f ca="1">AA19</f>
-        <v>0.76924999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="46">
         <f t="shared" ref="M19:M43" si="0">E19</f>
-        <v>0</v>
+        <v>2130548</v>
       </c>
       <c r="N19" s="50">
         <f t="array" ref="N19">SUM(G19:I19/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="O19" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P19" s="4">
         <f>N19/O19</f>
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4">
         <f>$G$5</f>
@@ -2212,15 +2228,15 @@
       </c>
       <c r="S19" s="4">
         <f>P19*Q19*$G$8</f>
-        <v>0.34425</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T19" s="4">
         <f>SUM(R19:S19)</f>
-        <v>0.76924999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="U19" s="4">
         <f>MIN(1,T19)</f>
-        <v>0.76924999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="V19" s="4">
         <f>T19-U19</f>
@@ -2228,11 +2244,11 @@
       </c>
       <c r="W19" s="4">
         <f>1-U19</f>
-        <v>0.23075000000000001</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X19" s="4">
         <f ca="1">W19/$W$44</f>
-        <v>0.51277777777777789</v>
+        <v>0.25</v>
       </c>
       <c r="Y19" s="4">
         <f ca="1">X19*$V$44</f>
@@ -2244,27 +2260,31 @@
       </c>
       <c r="AA19" s="4">
         <f ca="1">U19+Z19</f>
-        <v>0.76924999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B20" s="88"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="90"/>
       <c r="C20" s="58">
         <v>2</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="E20" s="65">
+        <v>2125104</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="G20" s="30">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="H20" s="8">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I20" s="31">
-        <v>0.55000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="J20" s="61" t="str">
         <f t="shared" ref="J20:J43" ca="1" si="1">IF(V20&gt;0,"- "&amp;TEXT(V20*100,"0.0")&amp;"%",IF(Z20&gt;0,"+ "&amp;TEXT(Z20*100,"0.0")&amp;"%",""))</f>
@@ -2272,24 +2292,24 @@
       </c>
       <c r="K20" s="18">
         <f t="shared" ref="K20:K43" ca="1" si="2">AA20</f>
-        <v>0.99875000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2125104</v>
       </c>
       <c r="N20" s="50">
         <f t="array" ref="N20">SUM(G20:I20/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.45000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="O20" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P20" s="4">
         <f>N20/O20</f>
-        <v>1.3500000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="4">
         <f>$G$5</f>
@@ -2301,15 +2321,15 @@
       </c>
       <c r="S20" s="4">
         <f>P20*Q20*$G$8</f>
-        <v>0.57375000000000009</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T20" s="4">
         <f t="shared" ref="T20:T22" si="3">SUM(R20:S20)</f>
-        <v>0.99875000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="U20" s="4">
         <f>MIN(1,T20)</f>
-        <v>0.99875000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="V20" s="4">
         <f t="shared" ref="V20:V22" si="4">T20-U20</f>
@@ -2317,11 +2337,11 @@
       </c>
       <c r="W20" s="4">
         <f>1-U20</f>
-        <v>1.2499999999999734E-3</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X20" s="4">
         <f ca="1">W20/$W$44</f>
-        <v>2.7777777777777189E-3</v>
+        <v>0.25</v>
       </c>
       <c r="Y20" s="4">
         <f ca="1">X20*$V$44</f>
@@ -2333,27 +2353,31 @@
       </c>
       <c r="AA20" s="4">
         <f ca="1">U20+Z20</f>
-        <v>0.99875000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B21" s="88"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="90"/>
       <c r="C21" s="58">
         <v>3</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="65">
+        <v>1515895</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="30">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H21" s="8">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J21" s="61" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2361,24 +2385,24 @@
       </c>
       <c r="K21" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78200000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1515895</v>
       </c>
       <c r="N21" s="50">
         <f t="array" ref="N21">SUM(G21:I21/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="O21" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P21" s="4">
         <f>N21/O21</f>
-        <v>0.84000000000000008</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="4">
         <f>$G$5</f>
@@ -2390,15 +2414,15 @@
       </c>
       <c r="S21" s="4">
         <f>P21*Q21*$G$8</f>
-        <v>0.35700000000000004</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" si="3"/>
-        <v>0.78200000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="U21" s="4">
         <f>MIN(1,T21)</f>
-        <v>0.78200000000000003</v>
+        <v>0.85</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" si="4"/>
@@ -2406,11 +2430,11 @@
       </c>
       <c r="W21" s="4">
         <f>1-U21</f>
-        <v>0.21799999999999997</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X21" s="4">
         <f ca="1">W21/$W$44</f>
-        <v>0.48444444444444446</v>
+        <v>0.25</v>
       </c>
       <c r="Y21" s="4">
         <f ca="1">X21*$V$44</f>
@@ -2422,11 +2446,11 @@
       </c>
       <c r="AA21" s="4">
         <f ca="1">U21+Z21</f>
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B22" s="88"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="90"/>
       <c r="C22" s="58">
         <v>4</v>
       </c>
@@ -2434,17 +2458,25 @@
         <v>3</v>
       </c>
       <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.25</v>
+      </c>
       <c r="J22" s="61" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K22" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="46">
@@ -2453,15 +2485,15 @@
       </c>
       <c r="N22" s="50">
         <f t="array" ref="N22">SUM(G22:I22/$G$17:$I$17*$G$16:$I$16)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O22" s="50">
         <f>1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P22" s="4">
         <f>N22/O22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4">
         <f>$G$5</f>
@@ -2473,15 +2505,15 @@
       </c>
       <c r="S22" s="4">
         <f>P22*Q22*$G$8</f>
-        <v>0</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T22" s="4">
         <f t="shared" si="3"/>
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="U22" s="4">
         <f>MIN(1,T22)</f>
-        <v>0.42499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="V22" s="4">
         <f t="shared" si="4"/>
@@ -2489,11 +2521,11 @@
       </c>
       <c r="W22" s="4">
         <f>1-U22</f>
-        <v>0.57499999999999996</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="X22" s="4">
         <f ca="1">W22/$W$44</f>
-        <v>1.2777777777777779</v>
+        <v>0.25</v>
       </c>
       <c r="Y22" s="4">
         <f ca="1">X22*$V$44</f>
@@ -2505,11 +2537,11 @@
       </c>
       <c r="AA22" s="4">
         <f ca="1">U22+Z22</f>
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="88"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="90"/>
       <c r="C23" s="58">
         <v>5</v>
       </c>
@@ -2540,7 +2572,7 @@
       </c>
       <c r="O23" s="68">
         <f t="shared" ref="O23:O43" si="6">1/$M$49</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" ref="P23:P43" si="7">N23/O23</f>
@@ -2576,7 +2608,7 @@
       </c>
       <c r="X23" s="4">
         <f t="shared" ref="X23:X43" ca="1" si="15">W23/$W$44</f>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" ref="Y23:Y43" ca="1" si="16">X23*$V$44</f>
@@ -2591,8 +2623,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="88"/>
+    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="90"/>
       <c r="C24" s="58">
         <v>6</v>
       </c>
@@ -2623,7 +2655,7 @@
       </c>
       <c r="O24" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="7"/>
@@ -2659,7 +2691,7 @@
       </c>
       <c r="X24" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2674,8 +2706,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="88"/>
+    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="90"/>
       <c r="C25" s="58">
         <v>7</v>
       </c>
@@ -2706,7 +2738,7 @@
       </c>
       <c r="O25" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="7"/>
@@ -2742,7 +2774,7 @@
       </c>
       <c r="X25" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2757,8 +2789,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="88"/>
+    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="90"/>
       <c r="C26" s="58">
         <v>8</v>
       </c>
@@ -2789,7 +2821,7 @@
       </c>
       <c r="O26" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="7"/>
@@ -2825,7 +2857,7 @@
       </c>
       <c r="X26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2840,8 +2872,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="88"/>
+    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="90"/>
       <c r="C27" s="58">
         <v>9</v>
       </c>
@@ -2872,7 +2904,7 @@
       </c>
       <c r="O27" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="7"/>
@@ -2908,7 +2940,7 @@
       </c>
       <c r="X27" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -2923,8 +2955,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="88"/>
+    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="90"/>
       <c r="C28" s="58">
         <v>10</v>
       </c>
@@ -2955,7 +2987,7 @@
       </c>
       <c r="O28" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="7"/>
@@ -2991,7 +3023,7 @@
       </c>
       <c r="X28" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3006,8 +3038,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="88"/>
+    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="90"/>
       <c r="C29" s="58">
         <v>11</v>
       </c>
@@ -3038,7 +3070,7 @@
       </c>
       <c r="O29" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="7"/>
@@ -3074,7 +3106,7 @@
       </c>
       <c r="X29" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3089,8 +3121,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="88"/>
+    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="90"/>
       <c r="C30" s="58">
         <v>12</v>
       </c>
@@ -3121,7 +3153,7 @@
       </c>
       <c r="O30" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="7"/>
@@ -3157,7 +3189,7 @@
       </c>
       <c r="X30" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3172,8 +3204,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="88"/>
+    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
       <c r="C31" s="58">
         <v>13</v>
       </c>
@@ -3204,7 +3236,7 @@
       </c>
       <c r="O31" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="7"/>
@@ -3240,7 +3272,7 @@
       </c>
       <c r="X31" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3255,8 +3287,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="88"/>
+    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="90"/>
       <c r="C32" s="58">
         <v>14</v>
       </c>
@@ -3287,7 +3319,7 @@
       </c>
       <c r="O32" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="7"/>
@@ -3323,7 +3355,7 @@
       </c>
       <c r="X32" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3338,8 +3370,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="88"/>
+    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="90"/>
       <c r="C33" s="58">
         <v>15</v>
       </c>
@@ -3370,7 +3402,7 @@
       </c>
       <c r="O33" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="7"/>
@@ -3406,7 +3438,7 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3421,8 +3453,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="88"/>
+    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="90"/>
       <c r="C34" s="58">
         <v>16</v>
       </c>
@@ -3453,7 +3485,7 @@
       </c>
       <c r="O34" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="7"/>
@@ -3489,7 +3521,7 @@
       </c>
       <c r="X34" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3504,8 +3536,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="88"/>
+    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="90"/>
       <c r="C35" s="58">
         <v>17</v>
       </c>
@@ -3536,7 +3568,7 @@
       </c>
       <c r="O35" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P35" s="4">
         <f t="shared" si="7"/>
@@ -3572,7 +3604,7 @@
       </c>
       <c r="X35" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3587,8 +3619,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="88"/>
+    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="90"/>
       <c r="C36" s="58">
         <v>18</v>
       </c>
@@ -3619,7 +3651,7 @@
       </c>
       <c r="O36" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P36" s="4">
         <f t="shared" si="7"/>
@@ -3655,7 +3687,7 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3670,8 +3702,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="88"/>
+    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="90"/>
       <c r="C37" s="58">
         <v>19</v>
       </c>
@@ -3702,7 +3734,7 @@
       </c>
       <c r="O37" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P37" s="4">
         <f t="shared" si="7"/>
@@ -3738,7 +3770,7 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3753,8 +3785,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="88"/>
+    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="90"/>
       <c r="C38" s="58">
         <v>20</v>
       </c>
@@ -3785,7 +3817,7 @@
       </c>
       <c r="O38" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P38" s="4">
         <f t="shared" si="7"/>
@@ -3821,7 +3853,7 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3836,8 +3868,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="88"/>
+    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="90"/>
       <c r="C39" s="58">
         <v>21</v>
       </c>
@@ -3868,7 +3900,7 @@
       </c>
       <c r="O39" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P39" s="4">
         <f t="shared" si="7"/>
@@ -3904,7 +3936,7 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -3919,8 +3951,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="88"/>
+    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="90"/>
       <c r="C40" s="58">
         <v>22</v>
       </c>
@@ -3951,7 +3983,7 @@
       </c>
       <c r="O40" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P40" s="4">
         <f t="shared" si="7"/>
@@ -3987,7 +4019,7 @@
       </c>
       <c r="X40" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4002,8 +4034,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="88"/>
+    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="90"/>
       <c r="C41" s="58">
         <v>23</v>
       </c>
@@ -4034,7 +4066,7 @@
       </c>
       <c r="O41" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="7"/>
@@ -4070,7 +4102,7 @@
       </c>
       <c r="X41" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4085,8 +4117,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="88"/>
+    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="90"/>
       <c r="C42" s="58">
         <v>24</v>
       </c>
@@ -4117,7 +4149,7 @@
       </c>
       <c r="O42" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P42" s="4">
         <f t="shared" si="7"/>
@@ -4153,7 +4185,7 @@
       </c>
       <c r="X42" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4168,8 +4200,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:27" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="88"/>
+    <row r="43" spans="2:27" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="90"/>
       <c r="C43" s="58">
         <v>25</v>
       </c>
@@ -4200,7 +4232,7 @@
       </c>
       <c r="O43" s="68">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="P43" s="4">
         <f t="shared" si="7"/>
@@ -4236,7 +4268,7 @@
       </c>
       <c r="X43" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2777777777777779</v>
+        <v>0.95833333333333315</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" ca="1" si="16"/>
@@ -4251,8 +4283,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="88"/>
+    <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="90"/>
       <c r="D44" s="19"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4283,7 +4315,7 @@
       </c>
       <c r="O44" s="4">
         <f>SUM(O19:O22)</f>
-        <v>1.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -4297,13 +4329,13 @@
       </c>
       <c r="W44" s="4">
         <f ca="1">SUM(OFFSET(W19, 0, 0, $G$3, 1))</f>
-        <v>0.44999999999999996</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="88"/>
+    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="90"/>
       <c r="G45" s="54"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -4317,7 +4349,7 @@
       <c r="O45" s="2"/>
       <c r="P45" s="4">
         <f>AVERAGE(P19:P22)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4">
         <f>AVERAGE(Q19:Q22)</f>
@@ -4329,15 +4361,15 @@
       </c>
       <c r="S45" s="4">
         <f t="shared" si="20"/>
-        <v>0.31875000000000003</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="T45" s="4">
         <f>AVERAGE(T19:T22)</f>
-        <v>0.74374999999999991</v>
+        <v>0.85</v>
       </c>
       <c r="U45" s="4">
         <f>AVERAGE(U19:U22)</f>
-        <v>0.74374999999999991</v>
+        <v>0.85</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="2"/>
@@ -4346,7 +4378,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="55"/>
       <c r="G46" s="57" t="s">
         <v>52</v>
@@ -4376,7 +4408,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="56" t="str">
         <f ca="1">IF(G44&lt;&gt;1,"La somme doit être égale à 100%","")</f>
         <v/>
@@ -4408,7 +4440,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -4460,7 +4492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="40"/>
@@ -4473,7 +4505,7 @@
       <c r="L49" s="38"/>
       <c r="M49" s="59">
         <f>G3</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" s="41"/>
       <c r="O49" s="41"/>
@@ -4490,7 +4522,7 @@
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
     </row>
-    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E50" s="48"/>
       <c r="F50" s="43"/>
       <c r="G50" s="40"/>
@@ -4517,7 +4549,7 @@
       <c r="Z50" s="41"/>
       <c r="AA50" s="41"/>
     </row>
-    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" s="48"/>
       <c r="F51" s="43"/>
       <c r="G51" s="40"/>
@@ -4544,7 +4576,7 @@
       <c r="Z51" s="41"/>
       <c r="AA51" s="41"/>
     </row>
-    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" s="48"/>
       <c r="F52" s="43"/>
       <c r="G52" s="40"/>
@@ -4571,7 +4603,7 @@
       <c r="Z52" s="41"/>
       <c r="AA52" s="41"/>
     </row>
-    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
       <c r="F53" s="43"/>
       <c r="G53" s="40"/>
@@ -4598,7 +4630,7 @@
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E54" s="48"/>
       <c r="F54" s="43"/>
       <c r="G54" s="40"/>
@@ -4625,7 +4657,7 @@
       <c r="Z54" s="41"/>
       <c r="AA54" s="41"/>
     </row>
-    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E55" s="48"/>
       <c r="F55" s="43"/>
       <c r="G55" s="40"/>
@@ -4652,7 +4684,7 @@
       <c r="Z55" s="41"/>
       <c r="AA55" s="41"/>
     </row>
-    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" s="48"/>
       <c r="F56" s="43"/>
       <c r="G56" s="40"/>
@@ -4679,7 +4711,7 @@
       <c r="Z56" s="41"/>
       <c r="AA56" s="41"/>
     </row>
-    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E57" s="48"/>
       <c r="F57" s="43"/>
       <c r="G57" s="40"/>
@@ -4706,7 +4738,7 @@
       <c r="Z57" s="41"/>
       <c r="AA57" s="41"/>
     </row>
-    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E58" s="48"/>
       <c r="F58" s="43"/>
       <c r="G58" s="40"/>
@@ -4733,7 +4765,7 @@
       <c r="Z58" s="41"/>
       <c r="AA58" s="41"/>
     </row>
-    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E59" s="48"/>
       <c r="F59" s="43"/>
       <c r="G59" s="40"/>
@@ -4760,7 +4792,7 @@
       <c r="Z59" s="41"/>
       <c r="AA59" s="41"/>
     </row>
-    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E60" s="48"/>
       <c r="F60" s="43"/>
       <c r="G60" s="40"/>
@@ -4787,7 +4819,7 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="41"/>
     </row>
-    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E61" s="48"/>
       <c r="F61" s="43"/>
       <c r="G61" s="40"/>
@@ -4814,7 +4846,7 @@
       <c r="Z61" s="41"/>
       <c r="AA61" s="41"/>
     </row>
-    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E62" s="48"/>
       <c r="F62" s="43"/>
       <c r="G62" s="40"/>
@@ -4841,7 +4873,7 @@
       <c r="Z62" s="42"/>
       <c r="AA62" s="41"/>
     </row>
-    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="E63" s="48"/>
       <c r="F63" s="43"/>
       <c r="G63" s="40"/>
@@ -4868,86 +4900,87 @@
       <c r="Z63" s="40"/>
       <c r="AA63" s="42"/>
     </row>
-    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L65" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L66" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L67" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L68" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L69" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L70" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L71" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L72" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L73" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L74" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L75" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L76" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L77" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L78" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="L79" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="B14:B45"/>
@@ -4964,7 +4997,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:K3"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -4986,7 +5018,7 @@
       <formula>$C19&gt;$G$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1991" yWindow="1205" count="13">
+  <dataValidations xWindow="1174" yWindow="323" count="13">
     <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Pourcentage" error="Défini entre 0 et 1." promptTitle="Impact" prompt="Veuillez saisir la proportion relative de l'impact de chacun des étudiants." sqref="I19:I43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -5041,17 +5073,17 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.61328125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9.07421875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="93.53515625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="93.5703125" style="67" customWidth="1"/>
     <col min="5" max="5" width="2" style="67" customWidth="1"/>
-    <col min="6" max="16384" width="9.07421875" style="67"/>
+    <col min="6" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="83" t="s">
         <v>93</v>
       </c>
@@ -5059,18 +5091,18 @@
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="2:5" ht="5.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="83" t="s">
         <v>94</v>
       </c>
@@ -5078,13 +5110,13 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="2:5" ht="5.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="67">
         <v>1</v>
       </c>
@@ -5095,13 +5127,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="84"/>
       <c r="D12" s="85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="67">
         <v>2</v>
       </c>
@@ -5112,13 +5144,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="84"/>
       <c r="D14" s="86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="67">
         <v>3</v>
       </c>
@@ -5129,12 +5161,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D16" s="86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="83" t="s">
         <v>85</v>
       </c>
@@ -5142,26 +5174,26 @@
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
     </row>
-    <row r="19" spans="2:5" ht="5.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="116" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="117"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="115" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="115"/>
     </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="118" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="118"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="67">
         <v>1</v>
       </c>
@@ -5169,7 +5201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="67">
         <v>2</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="67">
         <v>3</v>
       </c>
@@ -5185,12 +5217,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" s="67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="119" t="s">
         <v>92</v>
       </c>

--- a/énoncé/Fiche autoévaluation comparative.xlsx
+++ b/énoncé/Fiche autoévaluation comparative.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\KNN\C52-KNN\énoncé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GITHUB\C52-KNN\énoncé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1659C3C-EC18-4024-93EE-A2669A470738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88706C-D378-4B04-847D-A27C6C45795E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8895" yWindow="5220" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Évaluation" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <t>Fuoco-binette, Romain</t>
   </si>
   <si>
-    <t>Emmanuel</t>
+    <t>Senosier, Emmanuel</t>
   </si>
 </sst>
 </file>
@@ -1424,6 +1424,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1526,14 +1534,6 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1558,7 +1558,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1635,7 +1635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1934,23 +1934,23 @@
   <dimension ref="B2:AA80"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="49" customWidth="1"/>
     <col min="2" max="2" width="7" style="49" customWidth="1"/>
     <col min="3" max="3" width="3" style="49" customWidth="1"/>
     <col min="4" max="4" width="12" style="49" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="49" customWidth="1"/>
-    <col min="7" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" style="49" customWidth="1"/>
+    <col min="7" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="2" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="10" style="2" hidden="1" customWidth="1"/>
     <col min="24" max="25" width="9" style="49" hidden="1" customWidth="1"/>
@@ -1958,129 +1958,129 @@
     <col min="28" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89" t="s">
+    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="91" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="D3" s="109" t="s">
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="91"/>
+      <c r="D3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111">
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113">
         <v>4</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
-    </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="89"/>
-    </row>
-    <row r="5" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
-      <c r="D5" s="109" t="s">
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="91"/>
+    </row>
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="91"/>
+      <c r="D5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="93">
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="95">
         <v>0.85</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="94"/>
-    </row>
-    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="G6" s="95" t="s">
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="91"/>
+      <c r="G6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="89"/>
-      <c r="D7" s="107" t="s">
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="91"/>
+      <c r="D7" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="96">
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="98">
         <v>0.5</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-    </row>
-    <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
-      <c r="D8" s="105" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="91"/>
+      <c r="D8" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="98">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="100">
         <f>1-G7</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="91"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="89"/>
-      <c r="D10" s="103" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="91"/>
+      <c r="D10" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="91">
-        <v>0</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-    </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="D11" s="101" t="s">
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="93">
+        <v>0</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="91"/>
+      <c r="D11" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="87">
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="89">
         <f ca="1">V44</f>
         <v>0</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="91"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2088,18 +2088,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90" t="s">
+    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90"/>
+    <row r="15" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="92"/>
       <c r="D15" s="21"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -2112,13 +2112,13 @@
       <c r="I15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="113" t="s">
+      <c r="J15" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="114"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="K15" s="88"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="92"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13"/>
       <c r="F16" s="51" t="s">
@@ -2136,8 +2136,8 @@
       <c r="J16" s="62"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="92"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
       <c r="F17" s="51" t="s">
@@ -2155,8 +2155,8 @@
       <c r="J17" s="9"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
+    <row r="18" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="92"/>
       <c r="D18" s="12"/>
       <c r="E18" s="53" t="s">
         <v>51</v>
@@ -2170,8 +2170,8 @@
       <c r="J18" s="9"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
+    <row r="19" spans="2:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="92"/>
       <c r="C19" s="58">
         <v>1</v>
       </c>
@@ -2263,8 +2263,8 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="92"/>
       <c r="C20" s="58">
         <v>2</v>
       </c>
@@ -2356,8 +2356,8 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="92"/>
       <c r="C21" s="58">
         <v>3</v>
       </c>
@@ -2449,15 +2449,17 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="92"/>
       <c r="C22" s="58">
         <v>4</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="65">
+        <v>1466369</v>
+      </c>
       <c r="F22" s="66" t="s">
         <v>99</v>
       </c>
@@ -2481,7 +2483,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1466369</v>
       </c>
       <c r="N22" s="50">
         <f t="array" ref="N22">SUM(G22:I22/$G$17:$I$17*$G$16:$I$16)</f>
@@ -2540,8 +2542,8 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+    <row r="23" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="92"/>
       <c r="C23" s="58">
         <v>5</v>
       </c>
@@ -2623,8 +2625,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
+    <row r="24" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="92"/>
       <c r="C24" s="58">
         <v>6</v>
       </c>
@@ -2706,8 +2708,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="90"/>
+    <row r="25" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="92"/>
       <c r="C25" s="58">
         <v>7</v>
       </c>
@@ -2789,8 +2791,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90"/>
+    <row r="26" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="92"/>
       <c r="C26" s="58">
         <v>8</v>
       </c>
@@ -2872,8 +2874,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="90"/>
+    <row r="27" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="92"/>
       <c r="C27" s="58">
         <v>9</v>
       </c>
@@ -2955,8 +2957,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="90"/>
+    <row r="28" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="92"/>
       <c r="C28" s="58">
         <v>10</v>
       </c>
@@ -3038,8 +3040,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="90"/>
+    <row r="29" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="92"/>
       <c r="C29" s="58">
         <v>11</v>
       </c>
@@ -3121,8 +3123,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="90"/>
+    <row r="30" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="92"/>
       <c r="C30" s="58">
         <v>12</v>
       </c>
@@ -3204,8 +3206,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="90"/>
+    <row r="31" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="92"/>
       <c r="C31" s="58">
         <v>13</v>
       </c>
@@ -3287,8 +3289,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="90"/>
+    <row r="32" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="92"/>
       <c r="C32" s="58">
         <v>14</v>
       </c>
@@ -3370,8 +3372,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="90"/>
+    <row r="33" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="92"/>
       <c r="C33" s="58">
         <v>15</v>
       </c>
@@ -3453,8 +3455,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90"/>
+    <row r="34" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="92"/>
       <c r="C34" s="58">
         <v>16</v>
       </c>
@@ -3536,8 +3538,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="90"/>
+    <row r="35" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="92"/>
       <c r="C35" s="58">
         <v>17</v>
       </c>
@@ -3619,8 +3621,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="90"/>
+    <row r="36" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="92"/>
       <c r="C36" s="58">
         <v>18</v>
       </c>
@@ -3702,8 +3704,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="90"/>
+    <row r="37" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="92"/>
       <c r="C37" s="58">
         <v>19</v>
       </c>
@@ -3785,8 +3787,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="90"/>
+    <row r="38" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="92"/>
       <c r="C38" s="58">
         <v>20</v>
       </c>
@@ -3868,8 +3870,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="90"/>
+    <row r="39" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="92"/>
       <c r="C39" s="58">
         <v>21</v>
       </c>
@@ -3951,8 +3953,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="90"/>
+    <row r="40" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="92"/>
       <c r="C40" s="58">
         <v>22</v>
       </c>
@@ -4034,8 +4036,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="90"/>
+    <row r="41" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="92"/>
       <c r="C41" s="58">
         <v>23</v>
       </c>
@@ -4117,8 +4119,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="90"/>
+    <row r="42" spans="2:27" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="92"/>
       <c r="C42" s="58">
         <v>24</v>
       </c>
@@ -4200,8 +4202,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:27" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="90"/>
+    <row r="43" spans="2:27" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="92"/>
       <c r="C43" s="58">
         <v>25</v>
       </c>
@@ -4283,8 +4285,8 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
+    <row r="44" spans="2:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="92"/>
       <c r="D44" s="19"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -4334,8 +4336,8 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="90"/>
+    <row r="45" spans="2:27" s="6" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="92"/>
       <c r="G45" s="54"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -4378,7 +4380,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" s="6" customFormat="1" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="55"/>
       <c r="G46" s="57" t="s">
         <v>52</v>
@@ -4408,7 +4410,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" s="6" customFormat="1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G47" s="56" t="str">
         <f ca="1">IF(G44&lt;&gt;1,"La somme doit être égale à 100%","")</f>
         <v/>
@@ -4440,7 +4442,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" s="6" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -4492,7 +4494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="40"/>
@@ -4522,7 +4524,7 @@
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
     </row>
-    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E50" s="48"/>
       <c r="F50" s="43"/>
       <c r="G50" s="40"/>
@@ -4549,7 +4551,7 @@
       <c r="Z50" s="41"/>
       <c r="AA50" s="41"/>
     </row>
-    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="48"/>
       <c r="F51" s="43"/>
       <c r="G51" s="40"/>
@@ -4576,7 +4578,7 @@
       <c r="Z51" s="41"/>
       <c r="AA51" s="41"/>
     </row>
-    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="48"/>
       <c r="F52" s="43"/>
       <c r="G52" s="40"/>
@@ -4603,7 +4605,7 @@
       <c r="Z52" s="41"/>
       <c r="AA52" s="41"/>
     </row>
-    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E53" s="48"/>
       <c r="F53" s="43"/>
       <c r="G53" s="40"/>
@@ -4630,7 +4632,7 @@
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E54" s="48"/>
       <c r="F54" s="43"/>
       <c r="G54" s="40"/>
@@ -4657,7 +4659,7 @@
       <c r="Z54" s="41"/>
       <c r="AA54" s="41"/>
     </row>
-    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E55" s="48"/>
       <c r="F55" s="43"/>
       <c r="G55" s="40"/>
@@ -4684,7 +4686,7 @@
       <c r="Z55" s="41"/>
       <c r="AA55" s="41"/>
     </row>
-    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E56" s="48"/>
       <c r="F56" s="43"/>
       <c r="G56" s="40"/>
@@ -4711,7 +4713,7 @@
       <c r="Z56" s="41"/>
       <c r="AA56" s="41"/>
     </row>
-    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E57" s="48"/>
       <c r="F57" s="43"/>
       <c r="G57" s="40"/>
@@ -4738,7 +4740,7 @@
       <c r="Z57" s="41"/>
       <c r="AA57" s="41"/>
     </row>
-    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E58" s="48"/>
       <c r="F58" s="43"/>
       <c r="G58" s="40"/>
@@ -4765,7 +4767,7 @@
       <c r="Z58" s="41"/>
       <c r="AA58" s="41"/>
     </row>
-    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E59" s="48"/>
       <c r="F59" s="43"/>
       <c r="G59" s="40"/>
@@ -4792,7 +4794,7 @@
       <c r="Z59" s="41"/>
       <c r="AA59" s="41"/>
     </row>
-    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E60" s="48"/>
       <c r="F60" s="43"/>
       <c r="G60" s="40"/>
@@ -4819,7 +4821,7 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="41"/>
     </row>
-    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E61" s="48"/>
       <c r="F61" s="43"/>
       <c r="G61" s="40"/>
@@ -4846,7 +4848,7 @@
       <c r="Z61" s="41"/>
       <c r="AA61" s="41"/>
     </row>
-    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E62" s="48"/>
       <c r="F62" s="43"/>
       <c r="G62" s="40"/>
@@ -4873,7 +4875,7 @@
       <c r="Z62" s="42"/>
       <c r="AA62" s="41"/>
     </row>
-    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="E63" s="48"/>
       <c r="F63" s="43"/>
       <c r="G63" s="40"/>
@@ -4900,86 +4902,87 @@
       <c r="Z63" s="40"/>
       <c r="AA63" s="42"/>
     </row>
-    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:27" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L65" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L66" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L67" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L68" s="38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L69" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L70" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L71" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L72" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L73" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L74" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L75" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L76" s="38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L77" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L78" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="L79" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="12:12" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="d2wj9CCEuGw4Mg6otQpiYDLe9ScqX7RqQ3VxEP8wAjD/h08OAkcxvAV0OuVlGLs0lDzKZe11zE9KnrJqQ3HHBQ==" saltValue="cDUUGHebzs7qC23bO1RmFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B2:B12"/>
@@ -4996,7 +4999,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="G16:J16">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -5073,17 +5075,17 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="67" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="93.5546875" style="67" customWidth="1"/>
     <col min="5" max="5" width="2" style="67" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="67"/>
+    <col min="6" max="16384" width="9.109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>93</v>
       </c>
@@ -5091,18 +5093,18 @@
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="67" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="83" t="s">
         <v>94</v>
       </c>
@@ -5110,13 +5112,13 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="5.85" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="67">
         <v>1</v>
       </c>
@@ -5127,13 +5129,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C12" s="84"/>
       <c r="D12" s="85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="67">
         <v>2</v>
       </c>
@@ -5144,13 +5146,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C14" s="84"/>
       <c r="D14" s="86" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="67">
         <v>3</v>
       </c>
@@ -5161,12 +5163,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D16" s="86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="83" t="s">
         <v>85</v>
       </c>
@@ -5174,26 +5176,26 @@
       <c r="D18" s="83"/>
       <c r="E18" s="83"/>
     </row>
-    <row r="19" spans="2:5" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="5.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="116" t="s">
         <v>86</v>
       </c>
       <c r="D20" s="117"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="115" t="s">
         <v>87</v>
       </c>
       <c r="D21" s="115"/>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="118" t="s">
         <v>88</v>
       </c>
       <c r="D22" s="118"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="67">
         <v>1</v>
       </c>
@@ -5201,7 +5203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="67">
         <v>2</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="67">
         <v>3</v>
       </c>
@@ -5217,12 +5219,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="119" t="s">
         <v>92</v>
       </c>
